--- a/data/trans_orig/IP05A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A06-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{860862EC-80E3-4F22-931E-5D54CFFE9101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02BCD86A-467D-44DC-B449-E52351C26EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E9232CF-AB2D-4190-9074-2B17A4DD5FE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F9B6974-4035-4C41-8647-1EFFD9B0B733}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,28 +76,28 @@
     <t>72,56%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>72,74%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,28 +136,28 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,1087 +169,1087 @@
     <t>71,65%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>68,09%</t>
   </si>
   <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>10,23%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06A1816-B831-452F-8CB9-FAB4DD8642FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC06F9A8-DB0E-487C-BF8C-5018BC5FD00F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2129,7 +2129,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2197,13 +2197,13 @@
         <v>110156</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
@@ -2212,13 +2212,13 @@
         <v>112896</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -2227,13 +2227,13 @@
         <v>223052</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2248,13 @@
         <v>44819</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -2263,13 +2263,13 @@
         <v>38286</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -2278,13 +2278,13 @@
         <v>83105</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2299,13 @@
         <v>2645</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2314,13 +2314,13 @@
         <v>3534</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2329,13 +2329,13 @@
         <v>6179</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2490,7 @@
         <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>6193</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>5841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2535,13 +2535,13 @@
         <v>12034</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2609,13 @@
         <v>541946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>722</v>
@@ -2624,13 +2624,13 @@
         <v>500936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1491</v>
@@ -2639,13 +2639,13 @@
         <v>1042882</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2660,13 @@
         <v>185940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2675,13 +2675,13 @@
         <v>185795</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -2690,13 +2690,13 @@
         <v>371735</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>22298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2726,13 +2726,13 @@
         <v>20134</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2741,13 +2741,13 @@
         <v>42433</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADABCDF-4DD8-4FA3-9AAB-365B166FE210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E439E157-4344-400A-9316-D0A6D47BFE4B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2977,13 +2977,13 @@
         <v>203876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2998,13 @@
         <v>20276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3013,13 +3013,13 @@
         <v>22877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
@@ -3055,7 +3055,7 @@
         <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3064,7 +3064,7 @@
         <v>6801</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>169</v>
@@ -3079,7 +3079,7 @@
         <v>8789</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>171</v>
@@ -3183,13 +3183,13 @@
         <v>353331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3204,13 @@
         <v>56195</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>68</v>
@@ -3219,13 +3219,13 @@
         <v>43099</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -3234,13 +3234,13 @@
         <v>99294</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3255,13 @@
         <v>7824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3270,13 +3270,13 @@
         <v>4801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3285,13 +3285,13 @@
         <v>12625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3359,13 +3359,13 @@
         <v>139859</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H12" s="7">
         <v>206</v>
@@ -3374,13 +3374,13 @@
         <v>144163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M12" s="7">
         <v>400</v>
@@ -3389,13 +3389,13 @@
         <v>284022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3410,13 @@
         <v>37129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3425,13 +3425,13 @@
         <v>38980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>111</v>
@@ -3440,13 +3440,13 @@
         <v>76110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3461,13 @@
         <v>9502</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3476,13 +3476,13 @@
         <v>5216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -3491,13 +3491,13 @@
         <v>14717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3565,13 @@
         <v>131330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>175</v>
@@ -3580,13 +3580,13 @@
         <v>122044</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -3595,13 +3595,13 @@
         <v>253374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3616,13 @@
         <v>34178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -3631,13 +3631,13 @@
         <v>42918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3646,13 +3646,13 @@
         <v>77096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3667,13 @@
         <v>8540</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3682,13 +3682,13 @@
         <v>7171</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -3697,13 +3697,13 @@
         <v>15712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3771,13 @@
         <v>565645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>798</v>
@@ -3786,13 +3786,13 @@
         <v>528958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>1603</v>
@@ -3801,13 +3801,13 @@
         <v>1094603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3822,13 @@
         <v>147777</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -3837,13 +3837,13 @@
         <v>147875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>436</v>
@@ -3852,13 +3852,13 @@
         <v>295652</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,10 +3873,10 @@
         <v>27854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>271</v>
@@ -3985,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18AC36-DA5A-42BA-B1BA-79E9CF3BF1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FB88DE-7820-436E-B43F-8C209470F286}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4127,10 +4127,10 @@
         <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>188</v>
@@ -4139,13 +4139,13 @@
         <v>94611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>5817</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4175,13 +4175,13 @@
         <v>6258</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4190,13 +4190,13 @@
         <v>12075</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>5339</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4226,13 +4226,13 @@
         <v>3846</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4241,13 +4241,13 @@
         <v>9185</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>139255</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>216</v>
@@ -4330,13 +4330,13 @@
         <v>131211</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>436</v>
@@ -4345,13 +4345,13 @@
         <v>270467</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4366,7 @@
         <v>22485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>312</v>
@@ -4384,10 +4384,10 @@
         <v>314</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -4396,13 +4396,13 @@
         <v>38284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4417,13 @@
         <v>13178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4432,13 +4432,13 @@
         <v>10583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4447,13 +4447,13 @@
         <v>23761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4509,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4521,13 +4521,13 @@
         <v>169908</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>197</v>
@@ -4536,13 +4536,13 @@
         <v>145521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>404</v>
@@ -4551,13 +4551,13 @@
         <v>315429</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4572,13 @@
         <v>23147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4587,13 +4587,13 @@
         <v>24921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4602,13 +4602,13 @@
         <v>48068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4623,13 @@
         <v>7616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>6503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4653,13 +4653,13 @@
         <v>14119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4727,13 @@
         <v>248098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>285</v>
@@ -4742,13 +4742,13 @@
         <v>212753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
@@ -4757,13 +4757,13 @@
         <v>460851</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4778,13 @@
         <v>28791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4793,13 +4793,13 @@
         <v>31936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4808,13 +4808,13 @@
         <v>60728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
         <v>12154</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>372</v>
@@ -4859,13 +4859,13 @@
         <v>28098</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4933,13 @@
         <v>604609</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>790</v>
@@ -4948,13 +4948,13 @@
         <v>536750</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>1605</v>
@@ -4963,13 +4963,13 @@
         <v>1141359</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4984,13 @@
         <v>80240</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -4999,13 +4999,13 @@
         <v>78914</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
@@ -5014,13 +5014,13 @@
         <v>159154</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5035,13 @@
         <v>38287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5050,10 +5050,10 @@
         <v>36876</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>400</v>

--- a/data/trans_orig/IP05A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02BCD86A-467D-44DC-B449-E52351C26EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{776123BB-FF6E-41E8-9482-04AAD2B32421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F9B6974-4035-4C41-8647-1EFFD9B0B733}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{59503B0F-899E-4D17-B1A1-CA1EF4395557}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="406">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,52%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,91 +73,91 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
     <t>72,56%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>72,74%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,1090 +166,1096 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
     <t>71,65%</t>
   </si>
   <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC06F9A8-DB0E-487C-BF8C-5018BC5FD00F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670AF909-58F2-40DC-9D67-2B0F161E6BB7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1779,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D4" s="7">
-        <v>105930</v>
+        <v>107023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1794,10 +1800,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I4" s="7">
-        <v>107023</v>
+        <v>105930</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1830,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>34824</v>
+        <v>33414</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1845,10 +1851,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>33414</v>
+        <v>34824</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1881,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>5237</v>
+        <v>6324</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1896,10 +1902,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>6324</v>
+        <v>5237</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1932,25 +1938,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1985,10 +1991,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7">
-        <v>191029</v>
+        <v>160437</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2000,10 +2006,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="I8" s="7">
-        <v>160437</v>
+        <v>191029</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2036,10 +2042,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>67368</v>
+        <v>70766</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2051,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7">
-        <v>70766</v>
+        <v>67368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2087,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>8223</v>
+        <v>4436</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2102,10 +2108,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>4436</v>
+        <v>8223</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2129,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,25 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>339</v>
+      </c>
+      <c r="D11" s="7">
+        <v>235639</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>371</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>266620</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>339</v>
-      </c>
-      <c r="I11" s="7">
-        <v>235639</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2185,40 +2191,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>161</v>
+      </c>
+      <c r="D12" s="7">
+        <v>112896</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
         <v>159</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>110156</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="7">
-        <v>161</v>
-      </c>
-      <c r="I12" s="7">
-        <v>112896</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>320</v>
@@ -2227,13 +2233,13 @@
         <v>223052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,34 +2248,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7">
+        <v>38286</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>44819</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38286</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -2278,13 +2284,13 @@
         <v>83105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,34 +2299,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3534</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2645</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3534</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2329,13 +2335,13 @@
         <v>6179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,25 +2350,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>220</v>
+      </c>
+      <c r="D15" s="7">
+        <v>154716</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>227</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>157620</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>220</v>
-      </c>
-      <c r="I15" s="7">
-        <v>154716</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2391,40 +2397,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>173</v>
+      </c>
+      <c r="D16" s="7">
+        <v>120580</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
         <v>197</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>134832</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="7">
-        <v>173</v>
-      </c>
-      <c r="I16" s="7">
-        <v>120580</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>370</v>
@@ -2433,13 +2439,13 @@
         <v>255412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,34 +2454,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43330</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>59</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>38929</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="7">
-        <v>60</v>
-      </c>
-      <c r="I17" s="7">
-        <v>43330</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -2484,13 +2490,13 @@
         <v>82259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,34 +2505,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5841</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6193</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5841</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2535,13 +2541,13 @@
         <v>12034</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,25 +2556,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>241</v>
+      </c>
+      <c r="D19" s="7">
+        <v>169751</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>241</v>
-      </c>
-      <c r="I19" s="7">
-        <v>169751</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2603,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>722</v>
+      </c>
+      <c r="D20" s="7">
+        <v>500936</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
         <v>769</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>541946</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="7">
-        <v>722</v>
-      </c>
-      <c r="I20" s="7">
-        <v>500936</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1491</v>
       </c>
       <c r="N20" s="7">
-        <v>1042882</v>
+        <v>1042883</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,31 +2663,31 @@
         <v>268</v>
       </c>
       <c r="D21" s="7">
-        <v>185940</v>
+        <v>185795</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
       </c>
       <c r="I21" s="7">
-        <v>185795</v>
+        <v>185940</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -2690,13 +2696,13 @@
         <v>371735</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,31 +2711,31 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7">
+        <v>20134</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>33</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>22298</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="7">
-        <v>29</v>
-      </c>
-      <c r="I22" s="7">
-        <v>20134</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>145</v>
@@ -2744,10 +2750,10 @@
         <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,25 +2762,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D23" s="7">
+        <v>706866</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1070</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>750184</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="I23" s="7">
-        <v>706866</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2789,7 +2795,7 @@
         <v>2089</v>
       </c>
       <c r="N23" s="7">
-        <v>1457050</v>
+        <v>1457051</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2823,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E439E157-4344-400A-9316-D0A6D47BFE4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C838BC6E-4258-4630-8B0F-EB660AB68F27}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2941,34 +2947,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>164</v>
+      </c>
+      <c r="D4" s="7">
+        <v>101976</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="7">
+      <c r="G4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="7">
+        <v>152</v>
+      </c>
+      <c r="I4" s="7">
         <v>101901</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="7">
-        <v>164</v>
-      </c>
-      <c r="I4" s="7">
-        <v>101976</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>316</v>
@@ -2977,13 +2983,13 @@
         <v>203876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,34 +2998,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22877</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="7">
         <v>32</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>20276</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="7">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22877</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
@@ -3028,13 +3034,13 @@
         <v>43153</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,34 +3049,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6801</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1988</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6801</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3079,13 +3085,13 @@
         <v>8789</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,25 +3100,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3147,34 +3153,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>253</v>
+      </c>
+      <c r="D8" s="7">
+        <v>160775</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="7">
         <v>282</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>192556</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="7">
-        <v>253</v>
-      </c>
-      <c r="I8" s="7">
-        <v>160775</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>535</v>
@@ -3183,13 +3189,13 @@
         <v>353331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,34 +3204,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43099</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7">
         <v>84</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>56195</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="7">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43099</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -3234,13 +3240,13 @@
         <v>99294</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,34 +3255,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4801</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7824</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4801</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3285,13 +3291,13 @@
         <v>12625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,25 +3306,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>329</v>
+      </c>
+      <c r="D11" s="7">
+        <v>208675</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>378</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>256575</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>329</v>
-      </c>
-      <c r="I11" s="7">
-        <v>208675</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3347,40 +3353,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>206</v>
+      </c>
+      <c r="D12" s="7">
+        <v>144163</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="7">
         <v>194</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>139859</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="7">
-        <v>206</v>
-      </c>
-      <c r="I12" s="7">
-        <v>144163</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M12" s="7">
         <v>400</v>
@@ -3389,13 +3395,13 @@
         <v>284022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,34 +3410,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7">
+        <v>38980</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="7">
         <v>53</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>37129</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7">
-        <v>58</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38980</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>111</v>
@@ -3455,10 +3461,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>9502</v>
+        <v>5216</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>217</v>
@@ -3470,10 +3476,10 @@
         <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>5216</v>
+        <v>9502</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>220</v>
@@ -3506,25 +3512,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>271</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188359</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>260</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>186490</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>271</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188359</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3553,16 +3559,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="7">
-        <v>131330</v>
+        <v>122044</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>226</v>
@@ -3574,10 +3580,10 @@
         <v>228</v>
       </c>
       <c r="H16" s="7">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I16" s="7">
-        <v>122044</v>
+        <v>131330</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>229</v>
@@ -3610,34 +3616,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>34178</v>
+        <v>42918</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>46</v>
+      </c>
+      <c r="I17" s="7">
+        <v>34178</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>42918</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3646,13 +3652,13 @@
         <v>77096</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,34 +3667,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7171</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8540</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7171</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -3697,13 +3703,13 @@
         <v>15712</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,25 +3718,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>244</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>244</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3765,13 +3771,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D20" s="7">
-        <v>565645</v>
+        <v>528958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>253</v>
@@ -3780,10 +3786,10 @@
         <v>254</v>
       </c>
       <c r="H20" s="7">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="I20" s="7">
-        <v>528958</v>
+        <v>565645</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>255</v>
@@ -3816,10 +3822,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7">
-        <v>147777</v>
+        <v>147875</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>261</v>
@@ -3831,10 +3837,10 @@
         <v>263</v>
       </c>
       <c r="H21" s="7">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I21" s="7">
-        <v>147875</v>
+        <v>147777</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>264</v>
@@ -3867,31 +3873,31 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>27854</v>
+        <v>23989</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>23989</v>
+        <v>27854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>274</v>
@@ -3903,7 +3909,7 @@
         <v>51843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>275</v>
@@ -3918,25 +3924,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1055</v>
+      </c>
+      <c r="D23" s="7">
+        <v>700822</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1060</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>741276</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1055</v>
-      </c>
-      <c r="I23" s="7">
-        <v>700822</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3965,7 +3971,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3985,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FB88DE-7820-436E-B43F-8C209470F286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B6E443-9E55-4EBE-9637-2E0A9DC5CEB1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4103,10 +4109,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7">
-        <v>47347</v>
+        <v>47426</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>278</v>
@@ -4118,34 +4124,34 @@
         <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I4" s="7">
-        <v>47265</v>
+        <v>49900</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>188</v>
       </c>
       <c r="N4" s="7">
-        <v>94611</v>
+        <v>97326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,49 +4160,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6204</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
-        <v>5817</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
       <c r="I5" s="7">
-        <v>6258</v>
+        <v>6196</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>12075</v>
+        <v>12400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +4211,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3881</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
-        <v>5339</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
       <c r="I6" s="7">
-        <v>3846</v>
+        <v>5348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>9185</v>
+        <v>9229</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,25 +4262,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4289,7 +4295,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4309,49 +4315,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>216</v>
+      </c>
+      <c r="D8" s="7">
+        <v>132114</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="7">
         <v>220</v>
       </c>
-      <c r="D8" s="7">
-        <v>139255</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="7">
-        <v>216</v>
-      </c>
       <c r="I8" s="7">
-        <v>131211</v>
+        <v>145045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>436</v>
       </c>
       <c r="N8" s="7">
-        <v>270467</v>
+        <v>277160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +4366,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15725</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="7">
         <v>34</v>
       </c>
-      <c r="D9" s="7">
-        <v>22485</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" s="7">
-        <v>25</v>
-      </c>
       <c r="I9" s="7">
-        <v>15799</v>
+        <v>23577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
       </c>
       <c r="N9" s="7">
-        <v>38284</v>
+        <v>39302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,49 +4417,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10043</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="7">
         <v>21</v>
       </c>
-      <c r="D10" s="7">
-        <v>13178</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
       <c r="I10" s="7">
-        <v>10583</v>
+        <v>13541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>23761</v>
+        <v>23584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,25 +4468,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>275</v>
       </c>
-      <c r="D11" s="7">
-        <v>174918</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>257</v>
-      </c>
       <c r="I11" s="7">
-        <v>157593</v>
+        <v>182164</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4495,7 +4501,7 @@
         <v>532</v>
       </c>
       <c r="N11" s="7">
-        <v>332512</v>
+        <v>340046</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4509,55 +4515,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>197</v>
+      </c>
+      <c r="D12" s="7">
+        <v>141984</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
-        <v>169908</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" s="7">
-        <v>197</v>
-      </c>
       <c r="I12" s="7">
-        <v>145521</v>
+        <v>176494</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>404</v>
       </c>
       <c r="N12" s="7">
-        <v>315429</v>
+        <v>318478</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,49 +4572,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25495</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" s="7">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
-        <v>23147</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
       <c r="I13" s="7">
-        <v>24921</v>
+        <v>26444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>48068</v>
+        <v>51939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,46 +4626,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>7616</v>
+        <v>6409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>6503</v>
+        <v>7686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>14119</v>
+        <v>14095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,25 +4674,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>241</v>
       </c>
-      <c r="D15" s="7">
-        <v>200671</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>210624</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4701,7 +4707,7 @@
         <v>475</v>
       </c>
       <c r="N15" s="7">
-        <v>377616</v>
+        <v>384512</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4715,55 +4721,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>285</v>
+      </c>
+      <c r="D16" s="7">
+        <v>209970</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="7">
         <v>292</v>
       </c>
-      <c r="D16" s="7">
-        <v>248098</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H16" s="7">
-        <v>285</v>
-      </c>
       <c r="I16" s="7">
-        <v>212753</v>
+        <v>263556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>577</v>
       </c>
       <c r="N16" s="7">
-        <v>460851</v>
+        <v>473524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,49 +4778,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31447</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17" s="7">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
-        <v>28791</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
       <c r="I17" s="7">
-        <v>31936</v>
+        <v>29085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
       </c>
       <c r="N17" s="7">
-        <v>60728</v>
+        <v>60533</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,49 +4829,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>34041</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
-        <v>12154</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
       <c r="I18" s="7">
-        <v>15944</v>
+        <v>12452</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>28098</v>
+        <v>46493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,25 +4880,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>275458</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>341</v>
       </c>
-      <c r="D19" s="7">
-        <v>289044</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>342</v>
-      </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305093</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4907,7 +4913,7 @@
         <v>683</v>
       </c>
       <c r="N19" s="7">
-        <v>549677</v>
+        <v>580550</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4927,49 +4933,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>790</v>
+      </c>
+      <c r="D20" s="7">
+        <v>531493</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H20" s="7">
         <v>815</v>
       </c>
-      <c r="D20" s="7">
-        <v>604609</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" s="7">
-        <v>790</v>
-      </c>
       <c r="I20" s="7">
-        <v>536750</v>
+        <v>634995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>1605</v>
       </c>
       <c r="N20" s="7">
-        <v>1141359</v>
+        <v>1166488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,49 +4984,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>110</v>
+      </c>
+      <c r="D21" s="7">
+        <v>78871</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H21" s="7">
         <v>104</v>
       </c>
-      <c r="D21" s="7">
-        <v>80240</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H21" s="7">
-        <v>110</v>
-      </c>
       <c r="I21" s="7">
-        <v>78914</v>
+        <v>85303</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>159154</v>
+        <v>164174</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,49 +5035,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7">
+        <v>54374</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" s="7">
         <v>54</v>
       </c>
-      <c r="D22" s="7">
-        <v>38287</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H22" s="7">
-        <v>42</v>
-      </c>
       <c r="I22" s="7">
-        <v>36876</v>
+        <v>39027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
       </c>
       <c r="N22" s="7">
-        <v>75163</v>
+        <v>93401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,25 +5086,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>942</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>973</v>
       </c>
-      <c r="D23" s="7">
-        <v>723136</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
       <c r="I23" s="7">
-        <v>652540</v>
+        <v>759325</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5113,7 +5119,7 @@
         <v>1915</v>
       </c>
       <c r="N23" s="7">
-        <v>1375676</v>
+        <v>1424063</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5127,7 +5133,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
